--- a/big configuration/配置 OpenTSDB.xlsx
+++ b/big configuration/配置 OpenTSDB.xlsx
@@ -56,6 +56,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.auto_create_tagks </t>
     </r>
     <r>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.auto_create_tagvs </t>
     </r>
     <r>
@@ -98,6 +110,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.connections.limit </t>
     </r>
     <r>
@@ -122,6 +140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.enable_api </t>
     </r>
     <r>
@@ -137,6 +161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to allow the 2.x HTTP API to function. When disabled, calls to endpoints such as </t>
     </r>
     <r>
@@ -184,6 +214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.enable_ui </t>
     </r>
     <r>
@@ -199,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to allow the built-in GUI and legacy HTTP API to function. When disabled, calls to the root endpoint or other such as </t>
     </r>
     <r>
@@ -246,6 +288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.histograms.config </t>
     </r>
     <r>
@@ -264,6 +312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A mapping of histogram codec class names to numeric identifications for storing multi-measurement data. For simple configurations, the value may be a quote-escaped JSON map, e.g. </t>
     </r>
     <r>
@@ -308,6 +362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.meta.cache.enable </t>
     </r>
     <r>
@@ -329,6 +389,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.meta.cache.plugin </t>
     </r>
     <r>
@@ -386,6 +452,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否通过</t>
     </r>
     <r>
@@ -436,6 +508,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.preload_uid_cache </t>
     </r>
     <r>
@@ -457,6 +535,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.preload_uid_cache.max_entries </t>
     </r>
     <r>
@@ -478,6 +562,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.stats_with_port </t>
     </r>
     <r>
@@ -499,6 +589,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.storage_exception_handler.enable </t>
     </r>
     <r>
@@ -520,6 +616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.storage_exception_handler.plugin </t>
     </r>
     <r>
@@ -541,6 +643,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.tag.allow_specialchars </t>
     </r>
     <r>
@@ -586,6 +694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.core.uid.random_metrics </t>
     </r>
     <r>
@@ -628,6 +742,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The class name of an authentication plugin to instantiate. If </t>
     </r>
     <r>
@@ -678,6 +798,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to enable the FuzzyRowFilter for HBase when making queries using the </t>
     </r>
     <r>
@@ -704,6 +830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.http.header_tag </t>
     </r>
     <r>
@@ -731,6 +863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A comma separated list of domain names to allow access to OpenTSDB when the </t>
     </r>
     <r>
@@ -775,6 +913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.http.request.cors_headers </t>
     </r>
     <r>
@@ -817,6 +961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.http.rpc.plugins </t>
     </r>
     <r>
@@ -859,6 +1009,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.mode </t>
     </r>
     <r>
@@ -874,6 +1030,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not the TSD will allow writing data points. Must be either </t>
     </r>
     <r>
@@ -945,6 +1107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>连接队列深度，表示已完成或未完成的连接请求，具体取决于操作系统。</t>
     </r>
     <r>
@@ -1091,6 +1259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.no_diediedie </t>
     </r>
     <r>
@@ -1106,6 +1280,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enable or disable the </t>
     </r>
     <r>
@@ -1132,6 +1312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.allow_simultaneous_duplicates </t>
     </r>
     <r>
@@ -1153,6 +1339,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.filter.expansion_limit </t>
     </r>
     <r>
@@ -1174,6 +1366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.bytes.allow_override, </t>
     </r>
     <r>
@@ -1195,6 +1393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.bytes.default </t>
     </r>
     <r>
@@ -1210,6 +1414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A limit on the number of bytes fetched from storage. When this limit is hit, the query will return with an exception. A value of </t>
     </r>
     <r>
@@ -1236,6 +1446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.data_points.allow_override </t>
     </r>
     <r>
@@ -1257,6 +1473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.data_points.default </t>
     </r>
     <r>
@@ -1272,6 +1494,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A limit on the number of data points fetched from storage. When this limit is hit, the query will return with an exception. A value of </t>
     </r>
     <r>
@@ -1298,6 +1526,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.overrides.interval </t>
     </r>
     <r>
@@ -1319,6 +1553,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.limits.overrides.config </t>
     </r>
     <r>
@@ -1340,6 +1580,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.multi_get.enable </t>
     </r>
     <r>
@@ -1361,6 +1607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.multi_get.batch_size </t>
     </r>
     <r>
@@ -1376,6 +1628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The number of </t>
     </r>
     <r>
@@ -1402,6 +1660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.multi_get.concurrent </t>
     </r>
     <r>
@@ -1423,6 +1687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.multi_get.get_all_salts </t>
     </r>
     <r>
@@ -1444,6 +1714,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.skip_unresolved_tagvs </t>
     </r>
     <r>
@@ -1465,6 +1741,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.query.timeout </t>
     </r>
     <r>
@@ -1486,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.config </t>
     </r>
     <r>
@@ -1510,6 +1798,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.enable </t>
     </r>
     <r>
@@ -1531,6 +1825,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.tag_raw </t>
     </r>
     <r>
@@ -1546,6 +1846,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to tag non-rolled-up and non-pre-aggregated values with the tag key configured in </t>
     </r>
     <r>
@@ -1581,6 +1887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.agg_tag_key </t>
     </r>
     <r>
@@ -1605,6 +1917,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.raw_agg_tag_value </t>
     </r>
     <r>
@@ -1620,6 +1938,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A special tag value to non-rolled-up and non-pre-aggregated data with when writing to storage. </t>
     </r>
     <r>
@@ -1649,6 +1973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rollups.block_derived </t>
     </r>
     <r>
@@ -1664,6 +1994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to block storing derived aggregations such as </t>
     </r>
     <r>
@@ -1711,6 +2047,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.rpc.telnet.return_errors </t>
     </r>
     <r>
@@ -1726,6 +2068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to return errors to the Telnet style socket when writing data via </t>
     </r>
     <r>
@@ -1764,6 +2112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to enable a real time publishing plugin. If true, you must supply a valid </t>
     </r>
     <r>
@@ -1793,6 +2147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The class name of a real time publishing plugin to instantiate. If </t>
     </r>
     <r>
@@ -1822,6 +2182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to enable search functionality. If true, you must supply a valid </t>
     </r>
     <r>
@@ -1851,6 +2217,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The class name of a search plugin to instantiate. If </t>
     </r>
     <r>
@@ -1880,6 +2252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not the FQDN should be returned with statistics requests. The default stats are returned with </t>
     </r>
     <r>
@@ -1912,6 +2290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否应返回带有统计信息请求的</t>
     </r>
     <r>
@@ -2034,6 +2418,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.startup.enable </t>
     </r>
     <r>
@@ -2055,6 +2445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.startup.plugin </t>
     </r>
     <r>
@@ -2070,6 +2466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The name of a plugin implementing the </t>
     </r>
     <r>
@@ -2096,6 +2498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.compaction.flush_interval </t>
     </r>
     <r>
@@ -2121,9 +2529,10 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="10.5"/>
-        <color rgb="FF002B36"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -2134,10 +2543,78 @@
     <t>A multiplier used to determine how quickly to attempt flushing the compaction queue. E.g. a value of 2 means it will try to flush the entire queue within 30 minutes. A value of 1 would take an hour.</t>
   </si>
   <si>
-    <t>一个乘数，用于确定尝试刷新压缩队列的速度。例如，值为2表示它将尝试在30分钟内刷新整个队列。值1将花费一个小时。</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <t>一个乘数，用于确定尝试刷新压缩队列的速度。例如，值为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示它将尝试在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟内刷新整个队列。值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将花费一个小时。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.compaction.max_concurrent_flushes </t>
     </r>
     <r>
@@ -2156,6 +2633,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在任何给定时间，最大压缩次数都会推送到</t>
     </r>
     <r>
@@ -2170,6 +2653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.compaction.min_flush_threshold </t>
     </r>
     <r>
@@ -2191,6 +2680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.enable_appends </t>
     </r>
     <r>
@@ -2217,10 +2712,61 @@
     <t>Whether or not to enable compactions</t>
   </si>
   <si>
-    <t>是否启用压缩</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否启用压缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每小时请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hbase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读取数据然后合并数据点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.fix_duplicates </t>
     </r>
     <r>
@@ -2290,6 +2836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.hbase.prefetch_meta </t>
     </r>
     <r>
@@ -2311,6 +2863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.hbase.scanner.maxNumRows </t>
     </r>
     <r>
@@ -2326,6 +2884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum number of rows to fetch from HBase per call to the scanner's </t>
     </r>
     <r>
@@ -2397,6 +2961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A comma-separated list of ZooKeeper hosts to connect to, with or without port specifiers. E.g. </t>
     </r>
     <r>
@@ -2420,6 +2990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.repair_appends </t>
     </r>
     <r>
@@ -2441,6 +3017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.max_tags </t>
     </r>
     <r>
@@ -2456,6 +3038,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum number of tags allowed per data point. This value can be changed after cluster creation. </t>
     </r>
     <r>
@@ -2480,6 +3068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个数据点允许的最大标记数。 </t>
     </r>
     <r>
@@ -2504,6 +3098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.salt.buckets </t>
     </r>
     <r>
@@ -2519,6 +3119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The number of salt buckets used to distribute load across regions. </t>
     </r>
     <r>
@@ -2543,6 +3149,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>用于在区域之间分配负载的盐桶数量。</t>
     </r>
     <r>
@@ -2567,6 +3179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.salt.width </t>
     </r>
     <r>
@@ -2582,6 +3200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The width, in bytes, of the salt prefix used to indicate which bucket a time series belongs in. A value of 0 means salting is disabled. </t>
     </r>
     <r>
@@ -2606,6 +3230,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>salt前缀的宽度（以字节为单位），用于指示时间序列所属的桶。值为0表示禁用salting。</t>
     </r>
     <r>
@@ -2630,6 +3260,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.timeseriesfilter.enable </t>
     </r>
     <r>
@@ -2651,6 +3287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.timeseriesfilter.plugin </t>
     </r>
     <r>
@@ -2666,6 +3308,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The class path to a plugin that implements the </t>
     </r>
     <r>
@@ -2692,6 +3340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.uid.width.metric </t>
     </r>
     <r>
@@ -2707,6 +3361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The width, in bytes, of metric UIDs. </t>
     </r>
     <r>
@@ -2731,6 +3391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>度量标准UID的宽度（以字节为单位）。</t>
     </r>
     <r>
@@ -2755,6 +3421,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.uid.width.tagk </t>
     </r>
     <r>
@@ -2770,6 +3442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The width, in bytes, of tag name UIDs. </t>
     </r>
     <r>
@@ -2794,6 +3472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>标记名称UID的宽度（以字节为单位）。</t>
     </r>
     <r>
@@ -2818,6 +3502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.uid.width.tagv </t>
     </r>
     <r>
@@ -2833,6 +3523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The width, in bytes, of tag value UIDs. </t>
     </r>
     <r>
@@ -2857,6 +3553,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>标记值UID的宽度（以字节为单位）。</t>
     </r>
     <r>
@@ -2881,6 +3583,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.use_max_value </t>
     </r>
     <r>
@@ -2896,6 +3604,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whether or not to choose the larger numeric value during TSDB compaction when duplicates are found and </t>
     </r>
     <r>
@@ -2940,6 +3654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.storage.use_otsdb_timestamp </t>
     </r>
     <r>
@@ -2961,6 +3681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uidfilter.enable </t>
     </r>
     <r>
@@ -2982,6 +3708,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uidfilter.plugin </t>
     </r>
     <r>
@@ -2997,6 +3729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A plugin implementing the </t>
     </r>
     <r>
@@ -3023,6 +3761,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uid.lru.enable </t>
     </r>
     <r>
@@ -3044,6 +3788,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uid.lru.id.size </t>
     </r>
     <r>
@@ -3065,6 +3815,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uid.lru.name.size </t>
     </r>
     <r>
@@ -3086,6 +3842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>tsd.uid.use_mode </t>
     </r>
     <r>
@@ -3101,6 +3863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Determines if the name and/or ID caches should be populated based on the </t>
     </r>
     <r>
@@ -3131,12 +3899,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3184,39 +3952,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3234,6 +3987,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3243,6 +4005,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3264,17 +4094,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3288,56 +4110,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.8"/>
+      <color rgb="FF002B36"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.8"/>
-      <color rgb="FF002B36"/>
-      <name val="Courier New"/>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3394,55 +4177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3460,19 +4195,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3490,13 +4267,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3508,25 +4333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,43 +4357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3603,20 +4386,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3636,17 +4416,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3668,6 +4451,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3677,178 +4469,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3877,7 +4660,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4201,8 +4987,8 @@
   <sheetPr/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5865,23 +6651,23 @@
       </c>
     </row>
     <row r="79" ht="40" customHeight="1" spans="1:7">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="10">
         <v>2</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="10"/>
+      <c r="G79" s="11" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5907,7 +6693,7 @@
       </c>
     </row>
     <row r="81" ht="40" customHeight="1" spans="1:7">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5928,44 +6714,44 @@
       </c>
     </row>
     <row r="82" ht="40" customHeight="1" spans="1:7">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E82" s="3" t="b">
+      <c r="E82" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="83" ht="40" customHeight="1" spans="1:7">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E83" s="3" t="b">
+      <c r="E83" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="5"/>
+      <c r="G83" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6570,7 +7356,7 @@
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="3" t="s">
         <v>370</v>
       </c>
       <c r="E111" s="3" t="b">
@@ -6579,7 +7365,7 @@
       <c r="F111" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="3" t="s">
         <v>371</v>
       </c>
     </row>
